--- a/biology/Botanique/Jardin_botanique_de_l'université_d'Innsbruck/Jardin_botanique_de_l'université_d'Innsbruck.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_d'Innsbruck/Jardin_botanique_de_l'université_d'Innsbruck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_d%27Innsbruck</t>
+          <t>Jardin_botanique_de_l'université_d'Innsbruck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de l'université d'Innsbruck (Botanischer Garten der Universität Innsbruck) est un jardin botanique de deux hectares administré par l'université d'Innsbruck en Autriche. Son adresse est: Botanischer Garten der Universität Innsbruck Sternwartestrasse 15, Innsbruck, Tirol 6020 Autriche. Il est membre du BGCI. Son code d'identification est IB.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_d%27Innsbruck</t>
+          <t>Jardin_botanique_de_l'université_d'Innsbruck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin a été créé en 1911, remplaçant un jardin antérieur. Il a été réaménagé entre 1948 et 1965 et son jardin alpin de rocailles a été redessiné entre 1987 et 1990 et installé selon les principes de la systématique moderne.
 Sa première serre date de 1909. Trois serres mieux adaptées ont été bâties entre 1977 et 1979, plus une serre de succulentes en 1993 et une sixième serre en 1997. L'entrée au jardin est gratuite, sauf pour les serres.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_d%27Innsbruck</t>
+          <t>Jardin_botanique_de_l'université_d'Innsbruck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le jardin possède plus de six mille plantes vivantes et huit mille taxons cultivés, répartis selon les sections suivantes :
 Jardin alpin de deux mille mètres carrés divisé en zones géographiques et géologiques et abritant plus d'un millier de plantes alpines du monde entier non-tropical. Une zone réservée au fougères est comprise, avec une tourbière et quatre mares.
